--- a/题材股.xlsx
+++ b/题材股.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>黄金</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -45,6 +45,198 @@
   </si>
   <si>
     <t>铜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦煤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上游</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安源煤业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤气化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊华能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>靖远煤电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平庄能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西山煤电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>露天煤业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州煤电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰花科创</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳泉煤业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘江股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒源煤电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开滦股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同煤业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平煤股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安环能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投新集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神火股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀中能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兖州煤业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中煤能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国神华</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永泰能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下游</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川圣达</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春燃气</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美锦能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安泰集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西焦化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝泰隆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力煤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际实业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱使股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂东电力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>申能股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦炭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中泰化学</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒钢宏兴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶钢松山</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑化股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁特钢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云维股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>太化股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山煤国际</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百花村</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,17 +860,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,14 +1221,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1037,22 +1243,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="5"/>
+    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1065,8 +1274,451 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C32" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C37" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C38" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C40" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C63" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C64" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C65" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C66" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C67" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C68" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C69" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C70" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C71" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C72" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C76" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C77" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C83" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C84" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C85" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C86" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C87" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C88" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C89" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C90" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C91" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C92" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C93" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C94" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C95" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C96" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C98" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C99" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C100" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C101" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C102" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/题材股.xlsx
+++ b/题材股.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7605"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资源题材" sheetId="1" r:id="rId1"/>
+    <sheet name="宏观题材" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>黄金</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -237,6 +238,18 @@
   </si>
   <si>
     <t>百花村</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币升值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>造纸业</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +891,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1223,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -1726,4 +1742,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/题材股.xlsx
+++ b/题材股.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="资源题材" sheetId="1" r:id="rId1"/>
     <sheet name="宏观题材" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1239,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
